--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/020_MarketMetaData_ATM/EUR_010_SwaptionATMVols.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/020_MarketMetaData_ATM/EUR_010_SwaptionATMVols.xlsx
@@ -11,9 +11,6 @@
     <sheet name="ICAP" sheetId="5" r:id="rId2"/>
     <sheet name="BGCP" sheetId="1" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Calendar">'General Settings'!$D$14</definedName>
     <definedName name="Currency">'General Settings'!$D$13</definedName>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
   <si>
     <t>ATM vol</t>
   </si>
@@ -175,6 +172,9 @@
   <si>
     <t>_BGCP</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +184,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -871,22 +871,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1181,7 +1165,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -1190,13 +1174,13 @@
     <col min="5" max="5" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="1" customFormat="1" ht="13.5" thickBot="1">
+    <row r="1" spans="1:63" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="33" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="15.75">
+    <row r="2" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="67" t="s">
         <v>25</v>
@@ -1263,7 +1247,7 @@
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
     </row>
-    <row r="3" spans="1:63" ht="12.75">
+    <row r="3" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="32"/>
@@ -1328,7 +1312,7 @@
       <c r="BJ3" s="1"/>
       <c r="BK3" s="1"/>
     </row>
-    <row r="4" spans="1:63" ht="12.75">
+    <row r="4" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="51" t="s">
@@ -1395,7 +1379,7 @@
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
     </row>
-    <row r="5" spans="1:63" ht="12.75">
+    <row r="5" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="51" t="s">
@@ -1464,7 +1448,7 @@
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
     </row>
-    <row r="6" spans="1:63" ht="12.75">
+    <row r="6" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="51" t="s">
@@ -1533,7 +1517,7 @@
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1"/>
     </row>
-    <row r="7" spans="1:63" ht="12.75">
+    <row r="7" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="51" t="s">
@@ -1602,15 +1586,14 @@
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
     </row>
-    <row r="8" spans="1:63" ht="12.75">
+    <row r="8" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="60" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\040_SwaptionVolBootstrap\020_MarketMetaData_ATM\</v>
+      <c r="D8" s="60" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
@@ -1672,7 +1655,7 @@
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
     </row>
-    <row r="9" spans="1:63" ht="12.75">
+    <row r="9" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="51" t="s">
@@ -1741,7 +1724,7 @@
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
     </row>
-    <row r="10" spans="1:63" ht="13.5" thickBot="1">
+    <row r="10" spans="1:63" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -1806,7 +1789,7 @@
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
     </row>
-    <row r="11" spans="1:63" ht="15.75">
+    <row r="11" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="67" t="s">
         <v>42</v>
@@ -1873,7 +1856,7 @@
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
     </row>
-    <row r="12" spans="1:63" ht="12.75">
+    <row r="12" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="32"/>
@@ -1938,7 +1921,7 @@
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
     </row>
-    <row r="13" spans="1:63" ht="12.75">
+    <row r="13" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="61" t="s">
@@ -2007,7 +1990,7 @@
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
     </row>
-    <row r="14" spans="1:63" ht="12.75">
+    <row r="14" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="63" t="s">
@@ -2076,7 +2059,7 @@
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
     </row>
-    <row r="15" spans="1:63" ht="12.75">
+    <row r="15" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="65" t="s">
@@ -2145,7 +2128,7 @@
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
     </row>
-    <row r="16" spans="1:63" ht="13.5" thickBot="1">
+    <row r="16" spans="1:63" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -2210,7 +2193,7 @@
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
     </row>
-    <row r="17" spans="1:63">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2275,7 +2258,7 @@
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
     </row>
-    <row r="18" spans="1:63">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2340,7 +2323,7 @@
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
     </row>
-    <row r="19" spans="1:63">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2405,7 +2388,7 @@
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
     </row>
-    <row r="20" spans="1:63">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2470,7 +2453,7 @@
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
     </row>
-    <row r="21" spans="1:63">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2535,7 +2518,7 @@
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
     </row>
-    <row r="22" spans="1:63">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2600,7 +2583,7 @@
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
     </row>
-    <row r="23" spans="1:63">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2665,7 +2648,7 @@
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
     </row>
-    <row r="24" spans="1:63">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2730,7 +2713,7 @@
       <c r="BJ24" s="1"/>
       <c r="BK24" s="1"/>
     </row>
-    <row r="25" spans="1:63">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2795,7 +2778,7 @@
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
     </row>
-    <row r="26" spans="1:63">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2860,7 +2843,7 @@
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
     </row>
-    <row r="27" spans="1:63">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2925,7 +2908,7 @@
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
     </row>
-    <row r="28" spans="1:63">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2990,7 +2973,7 @@
       <c r="BJ28" s="1"/>
       <c r="BK28" s="1"/>
     </row>
-    <row r="29" spans="1:63">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3055,7 +3038,7 @@
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
     </row>
-    <row r="30" spans="1:63">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3120,7 +3103,7 @@
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
     </row>
-    <row r="31" spans="1:63">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3185,7 +3168,7 @@
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
     </row>
-    <row r="32" spans="1:63">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3250,7 +3233,7 @@
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
     </row>
-    <row r="33" spans="1:63">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3315,7 +3298,7 @@
       <c r="BJ33" s="1"/>
       <c r="BK33" s="1"/>
     </row>
-    <row r="34" spans="1:63">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3380,7 +3363,7 @@
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
     </row>
-    <row r="35" spans="1:63">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3445,7 +3428,7 @@
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1"/>
     </row>
-    <row r="36" spans="1:63">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3510,7 +3493,7 @@
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
     </row>
-    <row r="37" spans="1:63">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3575,7 +3558,7 @@
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
     </row>
-    <row r="38" spans="1:63">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3640,7 +3623,7 @@
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
     </row>
-    <row r="39" spans="1:63">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3705,7 +3688,7 @@
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
     </row>
-    <row r="40" spans="1:63">
+    <row r="40" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3770,7 +3753,7 @@
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1"/>
     </row>
-    <row r="41" spans="1:63">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3835,7 +3818,7 @@
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
     </row>
-    <row r="42" spans="1:63">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3900,7 +3883,7 @@
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
     </row>
-    <row r="43" spans="1:63">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3965,7 +3948,7 @@
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
     </row>
-    <row r="44" spans="1:63">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4030,7 +4013,7 @@
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
     </row>
-    <row r="45" spans="1:63">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4095,7 +4078,7 @@
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
     </row>
-    <row r="46" spans="1:63">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4160,7 +4143,7 @@
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
     </row>
-    <row r="47" spans="1:63">
+    <row r="47" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4225,7 +4208,7 @@
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1"/>
     </row>
-    <row r="48" spans="1:63">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4290,7 +4273,7 @@
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
     </row>
-    <row r="49" spans="1:63">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4355,7 +4338,7 @@
       <c r="BJ49" s="1"/>
       <c r="BK49" s="1"/>
     </row>
-    <row r="50" spans="1:63">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4420,7 +4403,7 @@
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
     </row>
-    <row r="51" spans="1:63">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4485,7 +4468,7 @@
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1"/>
     </row>
-    <row r="52" spans="1:63">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4550,7 +4533,7 @@
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
     </row>
-    <row r="53" spans="1:63">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4615,7 +4598,7 @@
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
     </row>
-    <row r="54" spans="1:63">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4680,7 +4663,7 @@
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
     </row>
-    <row r="55" spans="1:63">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4745,7 +4728,7 @@
       <c r="BJ55" s="1"/>
       <c r="BK55" s="1"/>
     </row>
-    <row r="56" spans="1:63">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4810,7 +4793,7 @@
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
     </row>
-    <row r="57" spans="1:63">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4875,7 +4858,7 @@
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
     </row>
-    <row r="58" spans="1:63">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4940,7 +4923,7 @@
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
     </row>
-    <row r="59" spans="1:63">
+    <row r="59" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5035,7 +5018,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
@@ -5048,7 +5031,7 @@
     <col min="21" max="34" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="9" customFormat="1" ht="16.5">
+    <row r="1" spans="1:34" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
@@ -5063,7 +5046,7 @@
       <c r="I1" s="71"/>
       <c r="J1" s="72"/>
     </row>
-    <row r="2" spans="1:34" s="9" customFormat="1">
+    <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="29" t="s">
         <v>44</v>
       </c>
@@ -5083,7 +5066,7 @@
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
     </row>
-    <row r="3" spans="1:34" s="9" customFormat="1">
+    <row r="3" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>24</v>
       </c>
@@ -5097,14 +5080,14 @@
       <c r="G3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="58" t="e">
+      <c r="H3" s="58">
         <f>IF(Serialize,_xll.ohObjectSave(C3,SerializationPath&amp;H2,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:34" s="9" customFormat="1">
+    <row r="4" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>26</v>
       </c>
@@ -5125,7 +5108,7 @@
       <c r="I4" s="26"/>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:34" s="9" customFormat="1">
+    <row r="5" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>27</v>
       </c>
@@ -5137,7 +5120,7 @@
       <c r="E5" s="21"/>
       <c r="F5" s="24"/>
     </row>
-    <row r="6" spans="1:34" s="9" customFormat="1">
+    <row r="6" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
         <v>28</v>
       </c>
@@ -5149,7 +5132,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="1:34" s="9" customFormat="1">
+    <row r="7" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
         <v>29</v>
       </c>
@@ -5161,7 +5144,7 @@
       <c r="E7" s="21"/>
       <c r="F7" s="24"/>
     </row>
-    <row r="8" spans="1:34" s="9" customFormat="1">
+    <row r="8" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
         <v>30</v>
       </c>
@@ -5173,14 +5156,14 @@
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="1:34" s="9" customFormat="1" ht="12" thickBot="1">
+    <row r="9" spans="1:34" s="9" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+    <row r="10" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="13"/>
       <c r="C10" s="17" t="s">
@@ -5241,7 +5224,7 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
     </row>
-    <row r="11" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="11" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="15" t="s">
         <v>15</v>
@@ -5318,7 +5301,7 @@
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
     </row>
-    <row r="12" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="12" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="15" t="s">
         <v>20</v>
@@ -5395,7 +5378,7 @@
       <c r="AG12" s="11"/>
       <c r="AH12" s="11"/>
     </row>
-    <row r="13" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="13" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="15" t="s">
         <v>16</v>
@@ -5472,7 +5455,7 @@
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
     </row>
-    <row r="14" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="14" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="15" t="s">
         <v>17</v>
@@ -5549,7 +5532,7 @@
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
     </row>
-    <row r="15" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="15" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="15" t="s">
         <v>21</v>
@@ -5626,7 +5609,7 @@
       <c r="AG15" s="11"/>
       <c r="AH15" s="11"/>
     </row>
-    <row r="16" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="16" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="15" t="s">
         <v>1</v>
@@ -5703,7 +5686,7 @@
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
     </row>
-    <row r="17" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="17" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="15" t="s">
         <v>46</v>
@@ -5780,7 +5763,7 @@
       <c r="AG17" s="11"/>
       <c r="AH17" s="11"/>
     </row>
-    <row r="18" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="18" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="15" t="s">
         <v>2</v>
@@ -5857,7 +5840,7 @@
       <c r="AG18" s="11"/>
       <c r="AH18" s="11"/>
     </row>
-    <row r="19" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="19" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="15" t="s">
         <v>3</v>
@@ -5934,7 +5917,7 @@
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
     </row>
-    <row r="20" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="20" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="15" t="s">
         <v>4</v>
@@ -6011,7 +5994,7 @@
       <c r="AG20" s="11"/>
       <c r="AH20" s="11"/>
     </row>
-    <row r="21" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="21" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="15" t="s">
         <v>5</v>
@@ -6088,7 +6071,7 @@
       <c r="AG21" s="11"/>
       <c r="AH21" s="11"/>
     </row>
-    <row r="22" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="22" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="15" t="s">
         <v>6</v>
@@ -6165,7 +6148,7 @@
       <c r="AG22" s="11"/>
       <c r="AH22" s="11"/>
     </row>
-    <row r="23" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="23" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="15" t="s">
         <v>7</v>
@@ -6242,7 +6225,7 @@
       <c r="AG23" s="11"/>
       <c r="AH23" s="11"/>
     </row>
-    <row r="24" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="24" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="15" t="s">
         <v>8</v>
@@ -6319,7 +6302,7 @@
       <c r="AG24" s="11"/>
       <c r="AH24" s="11"/>
     </row>
-    <row r="25" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="25" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="15" t="s">
         <v>9</v>
@@ -6396,7 +6379,7 @@
       <c r="AG25" s="11"/>
       <c r="AH25" s="11"/>
     </row>
-    <row r="26" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="26" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="15" t="s">
         <v>10</v>
@@ -6473,7 +6456,7 @@
       <c r="AG26" s="11"/>
       <c r="AH26" s="11"/>
     </row>
-    <row r="27" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="27" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="15" t="s">
         <v>11</v>
@@ -6550,7 +6533,7 @@
       <c r="AG27" s="11"/>
       <c r="AH27" s="11"/>
     </row>
-    <row r="28" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="28" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="15" t="s">
         <v>12</v>
@@ -6627,7 +6610,7 @@
       <c r="AG28" s="11"/>
       <c r="AH28" s="11"/>
     </row>
-    <row r="29" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="29" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="15" t="s">
         <v>13</v>
@@ -6704,7 +6687,7 @@
       <c r="AG29" s="11"/>
       <c r="AH29" s="11"/>
     </row>
-    <row r="30" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+    <row r="30" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="16" t="s">
         <v>14</v>
@@ -6781,19 +6764,19 @@
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
     </row>
-    <row r="31" spans="1:34" s="9" customFormat="1"/>
-    <row r="32" spans="1:34" s="9" customFormat="1"/>
-    <row r="33" s="9" customFormat="1"/>
-    <row r="34" s="9" customFormat="1"/>
-    <row r="35" s="9" customFormat="1"/>
-    <row r="36" s="9" customFormat="1"/>
-    <row r="37" s="9" customFormat="1"/>
-    <row r="38" s="9" customFormat="1"/>
-    <row r="39" s="9" customFormat="1"/>
-    <row r="40" s="9" customFormat="1"/>
-    <row r="41" s="9" customFormat="1"/>
-    <row r="42" s="9" customFormat="1"/>
-    <row r="43" s="9" customFormat="1"/>
+    <row r="31" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G1:J1"/>
@@ -6813,7 +6796,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
@@ -6826,7 +6809,7 @@
     <col min="21" max="34" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="9" customFormat="1" ht="16.5">
+    <row r="1" spans="1:34" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
@@ -6841,7 +6824,7 @@
       <c r="I1" s="77"/>
       <c r="J1" s="78"/>
     </row>
-    <row r="2" spans="1:34" s="9" customFormat="1">
+    <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="29" t="s">
         <v>33</v>
       </c>
@@ -6861,7 +6844,7 @@
       <c r="I2" s="22"/>
       <c r="J2" s="23"/>
     </row>
-    <row r="3" spans="1:34" s="9" customFormat="1">
+    <row r="3" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>24</v>
       </c>
@@ -6875,14 +6858,14 @@
       <c r="G3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="58" t="e">
+      <c r="H3" s="58">
         <f>IF(Serialize,_xll.ohObjectSave(C3,SerializationPath&amp;H2,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:34" s="9" customFormat="1">
+    <row r="4" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>26</v>
       </c>
@@ -6903,7 +6886,7 @@
       <c r="I4" s="26"/>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:34" s="9" customFormat="1">
+    <row r="5" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>27</v>
       </c>
@@ -6915,7 +6898,7 @@
       <c r="E5" s="21"/>
       <c r="F5" s="24"/>
     </row>
-    <row r="6" spans="1:34" s="9" customFormat="1">
+    <row r="6" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
         <v>28</v>
       </c>
@@ -6927,7 +6910,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="1:34" s="9" customFormat="1">
+    <row r="7" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
         <v>29</v>
       </c>
@@ -6939,7 +6922,7 @@
       <c r="E7" s="21"/>
       <c r="F7" s="24"/>
     </row>
-    <row r="8" spans="1:34" s="9" customFormat="1">
+    <row r="8" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
         <v>30</v>
       </c>
@@ -6951,14 +6934,14 @@
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="1:34" s="9" customFormat="1" ht="12" thickBot="1">
+    <row r="9" spans="1:34" s="9" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+    <row r="10" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="13"/>
       <c r="C10" s="17" t="s">
@@ -7019,7 +7002,7 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
     </row>
-    <row r="11" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="11" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="15" t="s">
         <v>15</v>
@@ -7096,7 +7079,7 @@
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
     </row>
-    <row r="12" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="12" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="15" t="s">
         <v>20</v>
@@ -7173,7 +7156,7 @@
       <c r="AG12" s="11"/>
       <c r="AH12" s="11"/>
     </row>
-    <row r="13" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="13" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="15" t="s">
         <v>16</v>
@@ -7250,7 +7233,7 @@
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
     </row>
-    <row r="14" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="14" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="15" t="s">
         <v>17</v>
@@ -7327,7 +7310,7 @@
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
     </row>
-    <row r="15" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="15" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="15" t="s">
         <v>21</v>
@@ -7404,7 +7387,7 @@
       <c r="AG15" s="11"/>
       <c r="AH15" s="11"/>
     </row>
-    <row r="16" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="16" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="15" t="s">
         <v>1</v>
@@ -7481,7 +7464,7 @@
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
     </row>
-    <row r="17" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="17" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="15" t="s">
         <v>46</v>
@@ -7558,7 +7541,7 @@
       <c r="AG17" s="11"/>
       <c r="AH17" s="11"/>
     </row>
-    <row r="18" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="18" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="15" t="s">
         <v>2</v>
@@ -7635,7 +7618,7 @@
       <c r="AG18" s="11"/>
       <c r="AH18" s="11"/>
     </row>
-    <row r="19" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="19" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="15" t="s">
         <v>3</v>
@@ -7712,7 +7695,7 @@
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
     </row>
-    <row r="20" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="20" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="15" t="s">
         <v>4</v>
@@ -7789,7 +7772,7 @@
       <c r="AG20" s="11"/>
       <c r="AH20" s="11"/>
     </row>
-    <row r="21" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="21" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="15" t="s">
         <v>5</v>
@@ -7866,7 +7849,7 @@
       <c r="AG21" s="11"/>
       <c r="AH21" s="11"/>
     </row>
-    <row r="22" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="22" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="15" t="s">
         <v>6</v>
@@ -7943,7 +7926,7 @@
       <c r="AG22" s="11"/>
       <c r="AH22" s="11"/>
     </row>
-    <row r="23" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="23" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="15" t="s">
         <v>7</v>
@@ -8020,7 +8003,7 @@
       <c r="AG23" s="11"/>
       <c r="AH23" s="11"/>
     </row>
-    <row r="24" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="24" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="15" t="s">
         <v>8</v>
@@ -8097,7 +8080,7 @@
       <c r="AG24" s="11"/>
       <c r="AH24" s="11"/>
     </row>
-    <row r="25" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="25" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="15" t="s">
         <v>9</v>
@@ -8174,7 +8157,7 @@
       <c r="AG25" s="11"/>
       <c r="AH25" s="11"/>
     </row>
-    <row r="26" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="26" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="15" t="s">
         <v>10</v>
@@ -8251,7 +8234,7 @@
       <c r="AG26" s="11"/>
       <c r="AH26" s="11"/>
     </row>
-    <row r="27" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="27" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="15" t="s">
         <v>11</v>
@@ -8328,7 +8311,7 @@
       <c r="AG27" s="11"/>
       <c r="AH27" s="11"/>
     </row>
-    <row r="28" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="28" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="15" t="s">
         <v>12</v>
@@ -8405,7 +8388,7 @@
       <c r="AG28" s="11"/>
       <c r="AH28" s="11"/>
     </row>
-    <row r="29" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1">
+    <row r="29" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="15" t="s">
         <v>13</v>
@@ -8482,7 +8465,7 @@
       <c r="AG29" s="11"/>
       <c r="AH29" s="11"/>
     </row>
-    <row r="30" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+    <row r="30" spans="1:34" s="10" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="16" t="s">
         <v>14</v>
@@ -8559,19 +8542,19 @@
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
     </row>
-    <row r="31" spans="1:34" s="9" customFormat="1"/>
-    <row r="32" spans="1:34" s="9" customFormat="1"/>
-    <row r="33" s="9" customFormat="1"/>
-    <row r="34" s="9" customFormat="1"/>
-    <row r="35" s="9" customFormat="1"/>
-    <row r="36" s="9" customFormat="1"/>
-    <row r="37" s="9" customFormat="1"/>
-    <row r="38" s="9" customFormat="1"/>
-    <row r="39" s="9" customFormat="1"/>
-    <row r="40" s="9" customFormat="1"/>
-    <row r="41" s="9" customFormat="1"/>
-    <row r="42" s="9" customFormat="1"/>
-    <row r="43" s="9" customFormat="1"/>
+    <row r="31" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G1:J1"/>

--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/020_MarketMetaData_ATM/EUR_010_SwaptionATMVols.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/020_MarketMetaData_ATM/EUR_010_SwaptionATMVols.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t>ATM vol</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>_BGCP</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1592,8 +1589,9 @@
       <c r="C8" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>48</v>
+      <c r="D8" s="60" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\040_SwaptionVolBootstrap\020_MarketMetaData_ATM\</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
@@ -5080,9 +5078,9 @@
       <c r="G3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="58">
-        <f>IF(Serialize,_xll.ohObjectSave(C3,SerializationPath&amp;H2,FileOverwrite,Serialize),"--")</f>
-        <v>1</v>
+      <c r="H3" s="58" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(C3,SerializationPath&amp;H2,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="25"/>
@@ -6858,9 +6856,9 @@
       <c r="G3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="58">
-        <f>IF(Serialize,_xll.ohObjectSave(C3,SerializationPath&amp;H2,FileOverwrite,Serialize),"--")</f>
-        <v>1</v>
+      <c r="H3" s="58" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(C3,SerializationPath&amp;H2,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="25"/>
